--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,120 +46,129 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>okay</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>sound</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -169,40 +178,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>use</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>little</t>
@@ -211,33 +220,27 @@
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -271,10 +274,10 @@
     <t>friends</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
   </si>
   <si>
     <t>game</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7105263157894737</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.6559139784946236</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7096774193548387</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.5849056603773585</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7087378640776699</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.5625</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.676056338028169</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.3768115942028986</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>413</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>413</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>43</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.668918918918919</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.3396226415094339</v>
+        <v>0.3084648493543759</v>
       </c>
       <c r="L11">
-        <v>414</v>
+        <v>215</v>
       </c>
       <c r="M11">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>805</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.2912482065997131</v>
+        <v>0.2863070539419087</v>
       </c>
       <c r="L12">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="M12">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>494</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.2593360995850623</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>357</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5952380952380952</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.2583333333333334</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5555555555555556</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.2289156626506024</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>128</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.1590214067278287</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>275</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5172413793103449</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.1322751322751323</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>164</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5014492753623189</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.1004016064257028</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4857142857142857</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.08238387379491674</v>
+        <v>0.02920181700194679</v>
       </c>
       <c r="L19">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1047</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.462962962962963</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,31 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20">
-        <v>0.027255029201817</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1499</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4571428571428571</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4337349397590362</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4315789473684211</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1664,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4210526315789473</v>
+        <v>0.45</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1711,13 +1690,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4074074074074074</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1729,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1737,13 +1716,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4047619047619048</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1755,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1763,13 +1742,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3968253968253968</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1781,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1789,13 +1768,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3937007874015748</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1807,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1815,13 +1794,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3514851485148515</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1833,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1841,13 +1820,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3483146067415731</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1859,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1867,13 +1846,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.296875</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1885,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1893,13 +1872,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.296875</v>
+        <v>0.3203125</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1911,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1919,13 +1898,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2890995260663507</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C33">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1937,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1945,13 +1924,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2833333333333333</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1963,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1971,13 +1950,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.264957264957265</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1989,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1997,13 +1976,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2319587628865979</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2015,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2023,13 +2002,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2173913043478261</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2041,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2049,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.21</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2067,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2075,13 +2054,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1956521739130435</v>
+        <v>0.28125</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2093,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>222</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2101,13 +2080,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1938775510204082</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2119,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2127,13 +2106,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1868131868131868</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2145,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2153,13 +2132,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1740506329113924</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2171,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>261</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2205,13 +2184,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1661721068249258</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C44">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D44">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2223,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>562</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2231,13 +2210,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1610169491525424</v>
+        <v>0.165</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2249,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>99</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2257,13 +2236,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1588785046728972</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2275,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>180</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2283,25 +2262,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1401869158878505</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>92</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2309,13 +2288,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1401273885350318</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2327,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2335,13 +2314,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.13215859030837</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2353,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>394</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2361,13 +2340,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1257142857142857</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2379,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>153</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2387,13 +2366,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1120689655172414</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2405,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2413,13 +2392,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1071428571428571</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2431,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2439,13 +2418,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09289617486338798</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2457,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2465,13 +2444,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09041095890410959</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C54">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2483,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>332</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2491,13 +2470,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0846774193548387</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2509,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>227</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2517,13 +2496,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08239700374531835</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2535,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>245</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2543,13 +2522,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07853403141361257</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2561,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2569,13 +2548,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.06904231625835189</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2587,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>418</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2595,13 +2574,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05915492957746479</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2613,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>334</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2621,25 +2600,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05601317957166392</v>
+        <v>0.06071428571428571</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>573</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2647,25 +2626,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05555555555555555</v>
+        <v>0.05790645879732739</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>26</v>
       </c>
       <c r="E61">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2673,13 +2652,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.02442748091603053</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2691,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>639</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2699,25 +2678,77 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01901140684410646</v>
+        <v>0.03712296983758701</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F63">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>774</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.02788339670468948</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>27</v>
+      </c>
+      <c r="E64">
+        <v>0.19</v>
+      </c>
+      <c r="F64">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.02595419847328244</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
